--- a/exam/response.xlsx
+++ b/exam/response.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>message</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>answer</t>
   </si>
 </sst>
 </file>
@@ -383,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +407,12 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/exam/response.xlsx
+++ b/exam/response.xlsx
@@ -14,24 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>answer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
+  </si>
+  <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Phone number not valid</t>
+  </si>
+  <si>
+    <t>1KT19CS002</t>
+  </si>
+  <si>
+    <t>1KT19CS004</t>
+  </si>
+  <si>
+    <t>1KT19CS006</t>
+  </si>
+  <si>
+    <t>1KT19CS007</t>
+  </si>
+  <si>
+    <t>1KT19CS029</t>
+  </si>
+  <si>
+    <t>1KT19CS017</t>
+  </si>
+  <si>
+    <t>1KT19CS035</t>
+  </si>
+  <si>
+    <t>1KT19CS014</t>
+  </si>
+  <si>
+    <t>1KT19CS019</t>
   </si>
 </sst>
 </file>
@@ -389,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +452,114 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/exam/response.xlsx
+++ b/exam/response.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Ujjwal Kumar Paswan</t>
+  </si>
+  <si>
+    <t>rockinguzal@gmail.com</t>
   </si>
   <si>
     <t>Phone number not valid</t>
@@ -467,11 +473,17 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2">
+        <v>8592031812</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -479,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -490,10 +502,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -501,10 +513,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -512,10 +524,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -523,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -534,10 +546,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -545,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -556,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/exam/response.xlsx
+++ b/exam/response.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -28,55 +28,244 @@
     <t>message</t>
   </si>
   <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Ujjwal Kumar Paswan</t>
-  </si>
-  <si>
-    <t>rockinguzal@gmail.com</t>
-  </si>
-  <si>
-    <t>Phone number not valid</t>
-  </si>
-  <si>
-    <t>1KT19CS002</t>
-  </si>
-  <si>
-    <t>1KT19CS004</t>
-  </si>
-  <si>
-    <t>1KT19CS006</t>
-  </si>
-  <si>
-    <t>1KT19CS007</t>
-  </si>
-  <si>
-    <t>1KT19CS029</t>
-  </si>
-  <si>
-    <t>1KT19CS017</t>
-  </si>
-  <si>
-    <t>1KT19CS035</t>
-  </si>
-  <si>
-    <t>1KT19CS014</t>
-  </si>
-  <si>
-    <t>1KT19CS019</t>
+    <t>A K S H A Y H A N D E</t>
+  </si>
+  <si>
+    <t>AbhishekBharti</t>
+  </si>
+  <si>
+    <t>Aisha Tayyaba</t>
+  </si>
+  <si>
+    <t>Anu priya</t>
+  </si>
+  <si>
+    <t>ASHISH ANIL DHAGE</t>
+  </si>
+  <si>
+    <t>Bhisma Paikaray</t>
+  </si>
+  <si>
+    <t>Chinmoy Das</t>
+  </si>
+  <si>
+    <t>Deepika Singireddi</t>
+  </si>
+  <si>
+    <t>RAJAN RAJGOR</t>
+  </si>
+  <si>
+    <t>G A U T A M K R I S H N A</t>
+  </si>
+  <si>
+    <t>Gourav Oberai</t>
+  </si>
+  <si>
+    <t>GUPTA DEVKUMAR</t>
+  </si>
+  <si>
+    <t>Krushnakant Joshi</t>
+  </si>
+  <si>
+    <t>KUSHAGGR KASHYAP</t>
+  </si>
+  <si>
+    <t>Mallesh G.</t>
+  </si>
+  <si>
+    <t>MayankAgrawal</t>
+  </si>
+  <si>
+    <t>Namrata Bhovi</t>
+  </si>
+  <si>
+    <t>NAVEEN MADABOYINA</t>
+  </si>
+  <si>
+    <t>Jatin</t>
+  </si>
+  <si>
+    <t>PRATIBHA BHARTI</t>
+  </si>
+  <si>
+    <t>PRATIK WAWARE</t>
+  </si>
+  <si>
+    <t>Priyadarshan Behera</t>
+  </si>
+  <si>
+    <t>RAHUL BAISANE</t>
+  </si>
+  <si>
+    <t>RAVI DAS</t>
+  </si>
+  <si>
+    <t>Manan Purohit</t>
+  </si>
+  <si>
+    <t>LAVISH GUPTA</t>
+  </si>
+  <si>
+    <t>Roy Devpreyo</t>
+  </si>
+  <si>
+    <t>Shakya Dutta</t>
+  </si>
+  <si>
+    <t>SHARADA SHIVANAND SODDY</t>
+  </si>
+  <si>
+    <t>Sajjad Hossain</t>
+  </si>
+  <si>
+    <t>SANKET GUPTA</t>
+  </si>
+  <si>
+    <t>Shahebaj M. Solanki</t>
+  </si>
+  <si>
+    <t>S.SHAHITH</t>
+  </si>
+  <si>
+    <t>Shifa Banu</t>
+  </si>
+  <si>
+    <t>Venkata Sruthi Komaravolu</t>
+  </si>
+  <si>
+    <t>SUBRAT KUMAR SAHOO</t>
+  </si>
+  <si>
+    <t>Sowmitra sudheer kumar T</t>
+  </si>
+  <si>
+    <t>Suraj Bhosale</t>
+  </si>
+  <si>
+    <t>UMAR MUKTHAR T</t>
+  </si>
+  <si>
+    <t>Wajid Areeb</t>
+  </si>
+  <si>
+    <t>akshayhande222@gmail.com</t>
+  </si>
+  <si>
+    <t>abhisheklinkedin27@gmail.com</t>
+  </si>
+  <si>
+    <t>aisha17cs03@gmail.com</t>
+  </si>
+  <si>
+    <t>anupriya7856@gmail.com</t>
+  </si>
+  <si>
+    <t>ashishanildhage@gmail.com</t>
+  </si>
+  <si>
+    <t>paikaraybhisma@gmail.com</t>
+  </si>
+  <si>
+    <t>chinm3333@gmail.com</t>
+  </si>
+  <si>
+    <t>deepikasingireddi@gmail.com</t>
+  </si>
+  <si>
+    <t>rajanr877@gmail.com</t>
+  </si>
+  <si>
+    <t>gkrishna52@gmail.com</t>
+  </si>
+  <si>
+    <t>gauravoberai5399@gmail.com</t>
+  </si>
+  <si>
+    <t>gdev4534@gmail.com</t>
+  </si>
+  <si>
+    <t>krushnakantjoshi741@gmail.com</t>
+  </si>
+  <si>
+    <t>kushaggrkashyap2014@gmail.com</t>
+  </si>
+  <si>
+    <t>malleshyadavgovinkadi@gmail.com</t>
+  </si>
+  <si>
+    <t>mayankagrawal6162@gmail.com</t>
+  </si>
+  <si>
+    <t>namratabhovi@gmail.com</t>
+  </si>
+  <si>
+    <t>naveenmadaboyina76@gmail.com</t>
+  </si>
+  <si>
+    <t>erjatinyadav@gmail.com</t>
+  </si>
+  <si>
+    <t>Pratibhabharti1803@gmail.com</t>
+  </si>
+  <si>
+    <t>pratikwaware919@gmail.com</t>
+  </si>
+  <si>
+    <t>priyadarshan20behera@gmail.com</t>
+  </si>
+  <si>
+    <t>rbaisane24@gmail.com</t>
+  </si>
+  <si>
+    <t>iravikds@gmail.com</t>
+  </si>
+  <si>
+    <t>mananbit0@gmail.com</t>
+  </si>
+  <si>
+    <t>lavishg101@gmail.com</t>
+  </si>
+  <si>
+    <t>roydevpreyo@gmail.com</t>
+  </si>
+  <si>
+    <t>shakyadutta@hotmail.com</t>
+  </si>
+  <si>
+    <t>sharadasoddy@gmail.com</t>
+  </si>
+  <si>
+    <t>s.hossain417@gmail.com</t>
+  </si>
+  <si>
+    <t>sanketgupta681@gmail.com</t>
+  </si>
+  <si>
+    <t>ssolanki2712@gmail.com</t>
+  </si>
+  <si>
+    <t>shahithrao2030@gmail.com</t>
+  </si>
+  <si>
+    <t>shifabanum212@gmail.com</t>
+  </si>
+  <si>
+    <t>sruthikv236@gmail.com</t>
+  </si>
+  <si>
+    <t>subratsahoo813@gmail.com</t>
+  </si>
+  <si>
+    <t>sudheerthota66@gmail.com</t>
+  </si>
+  <si>
+    <t>sbhosale643@gmail.com</t>
+  </si>
+  <si>
+    <t>muktharmuthu1717@gmail.com</t>
+  </si>
+  <si>
+    <t>s.w.a.11wajid@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -434,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,125 +642,565 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>8592031812</v>
+        <v>7558690343</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8709431097</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>8840911178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8918542055</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8904275225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>8455894804</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>9127069615</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="C9">
+        <v>7901695807</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>9537296028</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>9051908986</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>9877172188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>8866573839</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>8788439863</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>8218861680</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>9705993549</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>6260685116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
+      </c>
+      <c r="C18">
+        <v>7975283581</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>7989893115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>9131695830</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>7070618818</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>7028877077</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>8847857267</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>9028057490</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>9128279663</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>7990686121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>7906029096</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>9959570184</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>9875492943</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>7875084105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>8482070014</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>8959298448</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>8766517792</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>7448544968</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>8547598364</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>9441212456</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>8917610940</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>9494806666</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>9665039503</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>6282435375</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>7058485648</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
